--- a/TypeCobol/Documentation/Studies/CobolLexer.tokens.xlsx
+++ b/TypeCobol/Documentation/Studies/CobolLexer.tokens.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Final list" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$H$1:$H$488</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$A$485</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tokens!$F$1:$F$492</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="844">
   <si>
     <t>SpaceSeparator</t>
   </si>
@@ -11219,10 +11219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J488"/>
+  <dimension ref="A1:J485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G481" sqref="G5:G481"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="H468" sqref="H468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14885,7 +14885,7 @@
         <v>202</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" ref="D223:D286" si="11">"        "&amp;B223&amp;" = "&amp;C223&amp;","</f>
+        <f t="shared" ref="D223:D285" si="11">"        "&amp;B223&amp;" = "&amp;C223&amp;","</f>
         <v xml:space="preserve">        ARE = 202,</v>
       </c>
       <c r="G223" t="str">
@@ -15569,7 +15569,7 @@
         <v xml:space="preserve">        CONTENT = 242,</v>
       </c>
       <c r="G263" t="str">
-        <f t="shared" ref="G263:G326" si="12">"    "&amp;B263&amp;","</f>
+        <f t="shared" ref="G263:G324" si="12">"    "&amp;B263&amp;","</f>
         <v xml:space="preserve">    CONTENT,</v>
       </c>
     </row>
@@ -15726,7 +15726,7 @@
         <v xml:space="preserve">    DATE_WRITTEN,</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>107</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v xml:space="preserve">    DAY,</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>108</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v xml:space="preserve">    DAY_OF_WEEK,</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>109</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v xml:space="preserve">    DBCS,</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>111</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v xml:space="preserve">    DEBUGGING,</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>118</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v xml:space="preserve">    DECIMAL_POINT,</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>119</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v xml:space="preserve">    DECLARATIVES,</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>121</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v xml:space="preserve">    DELIMITED,</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>122</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v xml:space="preserve">    DELIMITER,</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>123</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v xml:space="preserve">    DEPENDING,</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>124</v>
       </c>
@@ -15896,97 +15896,94 @@
         <v xml:space="preserve">    DESCENDING,</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="44" t="s">
-        <v>449</v>
-      </c>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>707</v>
+        <v>126</v>
       </c>
       <c r="C283">
         <f t="shared" si="13"/>
         <v>262</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">        DISPLAY_ARG = 262,</v>
+        <f t="shared" ref="D283:D346" si="14">"        "&amp;B283&amp;" = "&amp;C283&amp;","</f>
+        <v xml:space="preserve">        DISPLAY_1 = 262,</v>
       </c>
       <c r="G283" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    DISPLAY_ARG,</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    DISPLAY_1,</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C284">
         <f t="shared" si="13"/>
         <v>263</v>
       </c>
       <c r="D284" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">        DISPLAY_1 = 263,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        DIVISION = 263,</v>
       </c>
       <c r="G284" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    DISPLAY_1,</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    DIVISION,</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C285">
         <f t="shared" si="13"/>
         <v>264</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">        DIVISION = 264,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        DOWN = 264,</v>
       </c>
       <c r="G285" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    DIVISION,</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    DOWN,</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C286">
         <f t="shared" si="13"/>
         <v>265</v>
       </c>
       <c r="D286" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">        DOWN = 265,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        DUPLICATES = 265,</v>
       </c>
       <c r="G286" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    DOWN,</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    DUPLICATES,</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C287">
         <f t="shared" si="13"/>
         <v>266</v>
       </c>
       <c r="D287" t="str">
-        <f t="shared" ref="D287:D305" si="14">"        "&amp;B287&amp;" = "&amp;C287&amp;","</f>
-        <v xml:space="preserve">        DUPLICATES = 266,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        DYNAMIC = 266,</v>
       </c>
       <c r="G287" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    DUPLICATES,</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    DYNAMIC,</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>131</v>
+        <v>419</v>
       </c>
       <c r="C288">
         <f t="shared" si="13"/>
@@ -15994,16 +15991,16 @@
       </c>
       <c r="D288" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        DYNAMIC = 267,</v>
+        <v xml:space="preserve">        EBCDIC = 267,</v>
       </c>
       <c r="G288" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    DYNAMIC,</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    EBCDIC,</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>419</v>
+        <v>132</v>
       </c>
       <c r="C289">
         <f t="shared" si="13"/>
@@ -16011,16 +16008,16 @@
       </c>
       <c r="D289" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        EBCDIC = 268,</v>
+        <v xml:space="preserve">        EGCS = 268,</v>
       </c>
       <c r="G289" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    EBCDIC,</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    EGCS,</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>132</v>
+        <v>430</v>
       </c>
       <c r="C290">
         <f t="shared" si="13"/>
@@ -16028,16 +16025,16 @@
       </c>
       <c r="D290" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        EGCS = 269,</v>
+        <v xml:space="preserve">        ELEMENT = 269,</v>
       </c>
       <c r="G290" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    EGCS,</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    ELEMENT,</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C291">
         <f t="shared" si="13"/>
@@ -16045,33 +16042,33 @@
       </c>
       <c r="D291" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        ELEMENT = 270,</v>
+        <v xml:space="preserve">        ENCODING = 270,</v>
       </c>
       <c r="G291" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    ELEMENT,</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    ENCODING,</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>423</v>
+        <v>135</v>
       </c>
       <c r="C292">
-        <f>C291+1</f>
+        <f t="shared" si="13"/>
         <v>271</v>
       </c>
       <c r="D292" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        ENCODING = 271,</v>
+        <v xml:space="preserve">        END = 271,</v>
       </c>
       <c r="G292" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    ENCODING,</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    END,</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C293">
         <f t="shared" si="13"/>
@@ -16079,16 +16076,16 @@
       </c>
       <c r="D293" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        END = 272,</v>
+        <v xml:space="preserve">        END_OF_PAGE = 272,</v>
       </c>
       <c r="G293" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    END,</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    END_OF_PAGE,</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C294">
         <f t="shared" si="13"/>
@@ -16096,16 +16093,16 @@
       </c>
       <c r="D294" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        END_OF_PAGE = 273,</v>
+        <v xml:space="preserve">        ENDING = 273,</v>
       </c>
       <c r="G294" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    END_OF_PAGE,</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    ENDING,</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C295">
         <f t="shared" si="13"/>
@@ -16113,19 +16110,16 @@
       </c>
       <c r="D295" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        ENDING = 274,</v>
+        <v xml:space="preserve">        EOP = 274,</v>
       </c>
       <c r="G295" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    ENDING,</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="44" t="s">
-        <v>449</v>
-      </c>
+        <v xml:space="preserve">    EOP,</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>706</v>
+        <v>163</v>
       </c>
       <c r="C296">
         <f t="shared" si="13"/>
@@ -16133,16 +16127,16 @@
       </c>
       <c r="D296" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        ENTRY_ARG = 275,</v>
+        <v xml:space="preserve">        EQUAL = 275,</v>
       </c>
       <c r="G296" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    ENTRY_ARG,</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    EQUAL,</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C297">
         <f t="shared" si="13"/>
@@ -16150,16 +16144,16 @@
       </c>
       <c r="D297" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        EOP = 276,</v>
+        <v xml:space="preserve">        ERROR = 276,</v>
       </c>
       <c r="G297" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    EOP,</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    ERROR,</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C298">
         <f t="shared" si="13"/>
@@ -16167,16 +16161,16 @@
       </c>
       <c r="D298" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        EQUAL = 277,</v>
+        <v xml:space="preserve">        EVERY = 277,</v>
       </c>
       <c r="G298" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    EQUAL,</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    EVERY,</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C299">
         <f t="shared" si="13"/>
@@ -16184,16 +16178,16 @@
       </c>
       <c r="D299" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        ERROR = 278,</v>
+        <v xml:space="preserve">        EXCEPTION = 278,</v>
       </c>
       <c r="G299" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    ERROR,</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    EXCEPTION,</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C300">
         <f t="shared" si="13"/>
@@ -16201,16 +16195,16 @@
       </c>
       <c r="D300" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        EVERY = 279,</v>
+        <v xml:space="preserve">        EXTEND = 279,</v>
       </c>
       <c r="G300" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    EVERY,</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    EXTEND,</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C301">
         <f t="shared" si="13"/>
@@ -16218,16 +16212,16 @@
       </c>
       <c r="D301" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        EXCEPTION = 280,</v>
+        <v xml:space="preserve">        EXTERNAL = 280,</v>
       </c>
       <c r="G301" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    EXCEPTION,</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    EXTERNAL,</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C302">
         <f t="shared" si="13"/>
@@ -16235,16 +16229,16 @@
       </c>
       <c r="D302" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        EXTEND = 281,</v>
+        <v xml:space="preserve">        FACTORY = 281,</v>
       </c>
       <c r="G302" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    EXTEND,</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    FACTORY,</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C303">
         <f t="shared" si="13"/>
@@ -16252,16 +16246,16 @@
       </c>
       <c r="D303" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        EXTERNAL = 282,</v>
+        <v xml:space="preserve">        FALSE = 282,</v>
       </c>
       <c r="G303" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    EXTERNAL,</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">    FALSE,</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C304">
         <f t="shared" si="13"/>
@@ -16269,16 +16263,16 @@
       </c>
       <c r="D304" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        FACTORY = 283,</v>
+        <v xml:space="preserve">        FILE = 283,</v>
       </c>
       <c r="G304" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FACTORY,</v>
+        <v xml:space="preserve">    FILE,</v>
       </c>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C305">
         <f t="shared" si="13"/>
@@ -16286,3070 +16280,3017 @@
       </c>
       <c r="D305" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">        FALSE = 284,</v>
+        <v xml:space="preserve">        FILLER = 284,</v>
       </c>
       <c r="G305" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FALSE,</v>
+        <v xml:space="preserve">    FILLER,</v>
       </c>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C306">
         <f t="shared" si="13"/>
         <v>285</v>
       </c>
       <c r="D306" t="str">
-        <f t="shared" ref="D306:D368" si="15">"        "&amp;B306&amp;" = "&amp;C306&amp;","</f>
-        <v xml:space="preserve">        FILE = 285,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        FIRST = 285,</v>
       </c>
       <c r="G306" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FILE,</v>
+        <v xml:space="preserve">    FIRST,</v>
       </c>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C307">
         <f t="shared" si="13"/>
         <v>286</v>
       </c>
       <c r="D307" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        FILLER = 286,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        FOOTING = 286,</v>
       </c>
       <c r="G307" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FILLER,</v>
+        <v xml:space="preserve">    FOOTING,</v>
       </c>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C308">
         <f t="shared" si="13"/>
         <v>287</v>
       </c>
       <c r="D308" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        FIRST = 287,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        FOR = 287,</v>
       </c>
       <c r="G308" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FIRST,</v>
+        <v xml:space="preserve">    FOR,</v>
       </c>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C309">
         <f t="shared" si="13"/>
         <v>288</v>
       </c>
       <c r="D309" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        FOOTING = 288,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        FROM = 288,</v>
       </c>
       <c r="G309" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FOOTING,</v>
+        <v xml:space="preserve">    FROM,</v>
       </c>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C310">
         <f t="shared" si="13"/>
         <v>289</v>
       </c>
       <c r="D310" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        FOR = 289,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        FUNCTION = 289,</v>
       </c>
       <c r="G310" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FOR,</v>
+        <v xml:space="preserve">    FUNCTION,</v>
       </c>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C311">
         <f t="shared" si="13"/>
         <v>290</v>
       </c>
       <c r="D311" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        FROM = 290,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        FUNCTION_POINTER = 290,</v>
       </c>
       <c r="G311" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FROM,</v>
+        <v xml:space="preserve">    FUNCTION_POINTER,</v>
       </c>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C312">
         <f t="shared" si="13"/>
         <v>291</v>
       </c>
       <c r="D312" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        FUNCTION = 291,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        GENERATE = 291,</v>
       </c>
       <c r="G312" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FUNCTION,</v>
+        <v xml:space="preserve">    GENERATE,</v>
       </c>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C313">
         <f t="shared" si="13"/>
         <v>292</v>
       </c>
       <c r="D313" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        FUNCTION_POINTER = 292,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        GIVING = 292,</v>
       </c>
       <c r="G313" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    FUNCTION_POINTER,</v>
+        <v xml:space="preserve">    GIVING,</v>
       </c>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C314">
         <f t="shared" si="13"/>
         <v>293</v>
       </c>
       <c r="D314" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        GENERATE = 293,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        GLOBAL = 293,</v>
       </c>
       <c r="G314" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    GENERATE,</v>
+        <v xml:space="preserve">    GLOBAL,</v>
       </c>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C315">
         <f t="shared" si="13"/>
         <v>294</v>
       </c>
       <c r="D315" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        GIVING = 294,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        GREATER = 294,</v>
       </c>
       <c r="G315" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    GIVING,</v>
+        <v xml:space="preserve">    GREATER,</v>
       </c>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C316">
         <f t="shared" si="13"/>
         <v>295</v>
       </c>
       <c r="D316" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        GLOBAL = 295,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        GROUP_USAGE = 295,</v>
       </c>
       <c r="G316" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    GLOBAL,</v>
+        <v xml:space="preserve">    GROUP_USAGE,</v>
       </c>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C317">
         <f t="shared" si="13"/>
         <v>296</v>
       </c>
       <c r="D317" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        GREATER = 296,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        I_O = 296,</v>
       </c>
       <c r="G317" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    GREATER,</v>
+        <v xml:space="preserve">    I_O,</v>
       </c>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C318">
         <f t="shared" si="13"/>
         <v>297</v>
       </c>
       <c r="D318" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        GROUP_USAGE = 297,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        IN = 297,</v>
       </c>
       <c r="G318" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    GROUP_USAGE,</v>
+        <v xml:space="preserve">    IN,</v>
       </c>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C319">
         <f t="shared" si="13"/>
         <v>298</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        I_O = 298,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INDEX = 298,</v>
       </c>
       <c r="G319" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    I_O,</v>
+        <v xml:space="preserve">    INDEX,</v>
       </c>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C320">
         <f t="shared" si="13"/>
         <v>299</v>
       </c>
       <c r="D320" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        IN = 299,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INDEXED = 299,</v>
       </c>
       <c r="G320" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    IN,</v>
+        <v xml:space="preserve">    INDEXED,</v>
       </c>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C321">
         <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="D321" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        INDEX = 300,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INHERITS = 300,</v>
       </c>
       <c r="G321" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    INDEX,</v>
+        <v xml:space="preserve">    INHERITS,</v>
       </c>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C322">
         <f t="shared" si="13"/>
         <v>301</v>
       </c>
       <c r="D322" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        INDEXED = 301,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INITIAL = 301,</v>
       </c>
       <c r="G322" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    INDEXED,</v>
+        <v xml:space="preserve">    INITIAL,</v>
       </c>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C323">
         <f t="shared" si="13"/>
         <v>302</v>
       </c>
       <c r="D323" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        INHERITS = 302,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INPUT = 302,</v>
       </c>
       <c r="G323" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    INHERITS,</v>
+        <v xml:space="preserve">    INPUT,</v>
       </c>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C324">
         <f t="shared" si="13"/>
         <v>303</v>
       </c>
       <c r="D324" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        INITIAL = 303,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INSTALLATION = 303,</v>
       </c>
       <c r="G324" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">    INITIAL,</v>
+        <v xml:space="preserve">    INSTALLATION,</v>
       </c>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C325">
         <f t="shared" si="13"/>
         <v>304</v>
       </c>
       <c r="D325" t="str">
-        <f t="shared" si="15"/>
-        <v xml:space="preserve">        INPUT = 304,</v>
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INTO = 304,</v>
       </c>
       <c r="G325" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    INPUT,</v>
+        <f t="shared" ref="G325:G388" si="15">"    "&amp;B325&amp;","</f>
+        <v xml:space="preserve">    INTO,</v>
       </c>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C326">
         <f t="shared" si="13"/>
         <v>305</v>
       </c>
       <c r="D326" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        INVALID = 305,</v>
+      </c>
+      <c r="G326" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        INSTALLATION = 305,</v>
-      </c>
-      <c r="G326" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    INSTALLATION,</v>
+        <v xml:space="preserve">    INVALID,</v>
       </c>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C327">
         <f t="shared" si="13"/>
         <v>306</v>
       </c>
       <c r="D327" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        IS = 306,</v>
+      </c>
+      <c r="G327" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        INTO = 306,</v>
-      </c>
-      <c r="G327" t="str">
-        <f t="shared" ref="G327:G390" si="16">"    "&amp;B327&amp;","</f>
-        <v xml:space="preserve">    INTO,</v>
+        <v xml:space="preserve">    IS,</v>
       </c>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C328">
         <f t="shared" si="13"/>
         <v>307</v>
       </c>
       <c r="D328" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        JUST = 307,</v>
+      </c>
+      <c r="G328" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        INVALID = 307,</v>
-      </c>
-      <c r="G328" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    INVALID,</v>
+        <v xml:space="preserve">    JUST,</v>
       </c>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C329">
         <f t="shared" si="13"/>
         <v>308</v>
       </c>
       <c r="D329" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        JUSTIFIED = 308,</v>
+      </c>
+      <c r="G329" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        IS = 308,</v>
-      </c>
-      <c r="G329" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    IS,</v>
+        <v xml:space="preserve">    JUSTIFIED,</v>
       </c>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C330">
         <f t="shared" si="13"/>
         <v>309</v>
       </c>
       <c r="D330" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        KANJI = 309,</v>
+      </c>
+      <c r="G330" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        JUST = 309,</v>
-      </c>
-      <c r="G330" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    JUST,</v>
+        <v xml:space="preserve">    KANJI,</v>
       </c>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C331">
         <f t="shared" si="13"/>
         <v>310</v>
       </c>
       <c r="D331" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        KEY = 310,</v>
+      </c>
+      <c r="G331" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        JUSTIFIED = 310,</v>
-      </c>
-      <c r="G331" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    JUSTIFIED,</v>
+        <v xml:space="preserve">    KEY,</v>
       </c>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C332">
         <f t="shared" si="13"/>
         <v>311</v>
       </c>
       <c r="D332" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LABEL = 311,</v>
+      </c>
+      <c r="G332" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        KANJI = 311,</v>
-      </c>
-      <c r="G332" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    KANJI,</v>
+        <v xml:space="preserve">    LABEL,</v>
       </c>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C333">
         <f t="shared" si="13"/>
         <v>312</v>
       </c>
       <c r="D333" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LEADING = 312,</v>
+      </c>
+      <c r="G333" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        KEY = 312,</v>
-      </c>
-      <c r="G333" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    KEY,</v>
+        <v xml:space="preserve">    LEADING,</v>
       </c>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C334">
         <f t="shared" si="13"/>
         <v>313</v>
       </c>
       <c r="D334" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LEFT = 313,</v>
+      </c>
+      <c r="G334" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        LABEL = 313,</v>
-      </c>
-      <c r="G334" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    LABEL,</v>
+        <v xml:space="preserve">    LEFT,</v>
       </c>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C335">
         <f t="shared" si="13"/>
         <v>314</v>
       </c>
       <c r="D335" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LESS = 314,</v>
+      </c>
+      <c r="G335" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        LEADING = 314,</v>
-      </c>
-      <c r="G335" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    LEADING,</v>
+        <v xml:space="preserve">    LESS,</v>
       </c>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C336">
         <f t="shared" si="13"/>
         <v>315</v>
       </c>
       <c r="D336" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LINAGE = 315,</v>
+      </c>
+      <c r="G336" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        LEFT = 315,</v>
-      </c>
-      <c r="G336" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    LEFT,</v>
+        <v xml:space="preserve">    LINAGE,</v>
       </c>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C337">
         <f t="shared" si="13"/>
         <v>316</v>
       </c>
       <c r="D337" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LINE = 316,</v>
+      </c>
+      <c r="G337" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        LESS = 316,</v>
-      </c>
-      <c r="G337" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    LESS,</v>
+        <v xml:space="preserve">    LINE,</v>
       </c>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C338">
-        <f t="shared" ref="C338:C400" si="17">C337+1</f>
+        <f t="shared" ref="C338:C401" si="16">C337+1</f>
         <v>317</v>
       </c>
       <c r="D338" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LINES = 317,</v>
+      </c>
+      <c r="G338" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        LINAGE = 317,</v>
-      </c>
-      <c r="G338" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    LINAGE,</v>
+        <v xml:space="preserve">    LINES,</v>
       </c>
     </row>
     <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C339">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>318</v>
       </c>
       <c r="D339" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        LOCK = 318,</v>
+      </c>
+      <c r="G339" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        LINE = 318,</v>
-      </c>
-      <c r="G339" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    LINE,</v>
+        <v xml:space="preserve">    LOCK,</v>
       </c>
     </row>
     <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C340">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>319</v>
       </c>
       <c r="D340" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        MEMORY = 319,</v>
+      </c>
+      <c r="G340" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        LINES = 319,</v>
-      </c>
-      <c r="G340" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    LINES,</v>
+        <v xml:space="preserve">    MEMORY,</v>
       </c>
     </row>
     <row r="341" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C341">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>320</v>
       </c>
       <c r="D341" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        METHOD = 320,</v>
+      </c>
+      <c r="G341" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        LOCK = 320,</v>
-      </c>
-      <c r="G341" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    LOCK,</v>
+        <v xml:space="preserve">    METHOD,</v>
       </c>
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C342">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>321</v>
       </c>
       <c r="D342" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        METHOD_ID = 321,</v>
+      </c>
+      <c r="G342" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        MEMORY = 321,</v>
-      </c>
-      <c r="G342" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    MEMORY,</v>
+        <v xml:space="preserve">    METHOD_ID,</v>
       </c>
     </row>
     <row r="343" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C343">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>322</v>
       </c>
       <c r="D343" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        MODE = 322,</v>
+      </c>
+      <c r="G343" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        METHOD = 322,</v>
-      </c>
-      <c r="G343" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    METHOD,</v>
+        <v xml:space="preserve">    MODE,</v>
       </c>
     </row>
     <row r="344" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C344">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>323</v>
       </c>
       <c r="D344" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        MODULES = 323,</v>
+      </c>
+      <c r="G344" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        METHOD_ID = 323,</v>
-      </c>
-      <c r="G344" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    METHOD_ID,</v>
+        <v xml:space="preserve">    MODULES,</v>
       </c>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C345">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>324</v>
       </c>
       <c r="D345" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        MORE_LABELS = 324,</v>
+      </c>
+      <c r="G345" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        MODE = 324,</v>
-      </c>
-      <c r="G345" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    MODE,</v>
+        <v xml:space="preserve">    MORE_LABELS,</v>
       </c>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>239</v>
+        <v>428</v>
       </c>
       <c r="C346">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>325</v>
       </c>
       <c r="D346" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">        NAME = 325,</v>
+      </c>
+      <c r="G346" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        MODULES = 325,</v>
-      </c>
-      <c r="G346" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    MODULES,</v>
+        <v xml:space="preserve">    NAME,</v>
       </c>
     </row>
     <row r="347" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>240</v>
+        <v>426</v>
       </c>
       <c r="C347">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>326</v>
       </c>
       <c r="D347" t="str">
+        <f t="shared" ref="D347:D410" si="17">"        "&amp;B347&amp;" = "&amp;C347&amp;","</f>
+        <v xml:space="preserve">        NAMESPACE = 326,</v>
+      </c>
+      <c r="G347" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        MORE_LABELS = 326,</v>
-      </c>
-      <c r="G347" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    MORE_LABELS,</v>
+        <v xml:space="preserve">    NAMESPACE,</v>
       </c>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C348">
+        <f t="shared" si="16"/>
+        <v>327</v>
+      </c>
+      <c r="D348" t="str">
         <f t="shared" si="17"/>
-        <v>327</v>
-      </c>
-      <c r="D348" t="str">
-        <f t="shared" ref="D348" si="18">"        "&amp;B348&amp;" = "&amp;C348&amp;","</f>
-        <v xml:space="preserve">        NAME = 327,</v>
+        <v xml:space="preserve">        NAMESPACE_PREFIX = 327,</v>
       </c>
       <c r="G348" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NAME,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    NAMESPACE_PREFIX,</v>
       </c>
     </row>
     <row r="349" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>426</v>
+        <v>244</v>
       </c>
       <c r="C349">
+        <f t="shared" si="16"/>
+        <v>328</v>
+      </c>
+      <c r="D349" t="str">
         <f t="shared" si="17"/>
-        <v>328</v>
-      </c>
-      <c r="D349" t="str">
+        <v xml:space="preserve">        NATIONAL = 328,</v>
+      </c>
+      <c r="G349" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NAMESPACE = 328,</v>
-      </c>
-      <c r="G349" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NAMESPACE,</v>
+        <v xml:space="preserve">    NATIONAL,</v>
       </c>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>427</v>
+        <v>245</v>
       </c>
       <c r="C350">
+        <f t="shared" si="16"/>
+        <v>329</v>
+      </c>
+      <c r="D350" t="str">
         <f t="shared" si="17"/>
-        <v>329</v>
-      </c>
-      <c r="D350" t="str">
+        <v xml:space="preserve">        NATIONAL_EDITED = 329,</v>
+      </c>
+      <c r="G350" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NAMESPACE_PREFIX = 329,</v>
-      </c>
-      <c r="G350" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NAMESPACE_PREFIX,</v>
+        <v xml:space="preserve">    NATIONAL_EDITED,</v>
       </c>
     </row>
     <row r="351" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C351">
+        <f t="shared" si="16"/>
+        <v>330</v>
+      </c>
+      <c r="D351" t="str">
         <f t="shared" si="17"/>
-        <v>330</v>
-      </c>
-      <c r="D351" t="str">
+        <v xml:space="preserve">        NATIVE = 330,</v>
+      </c>
+      <c r="G351" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NATIONAL = 330,</v>
-      </c>
-      <c r="G351" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NATIONAL,</v>
+        <v xml:space="preserve">    NATIVE,</v>
       </c>
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C352">
+        <f t="shared" si="16"/>
+        <v>331</v>
+      </c>
+      <c r="D352" t="str">
         <f t="shared" si="17"/>
-        <v>331</v>
-      </c>
-      <c r="D352" t="str">
+        <v xml:space="preserve">        NEGATIVE = 331,</v>
+      </c>
+      <c r="G352" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NATIONAL_EDITED = 331,</v>
-      </c>
-      <c r="G352" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NATIONAL_EDITED,</v>
+        <v xml:space="preserve">    NEGATIVE,</v>
       </c>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>246</v>
+        <v>422</v>
       </c>
       <c r="C353">
+        <f t="shared" si="16"/>
+        <v>332</v>
+      </c>
+      <c r="D353" t="str">
         <f t="shared" si="17"/>
-        <v>332</v>
-      </c>
-      <c r="D353" t="str">
+        <v xml:space="preserve">        NEW = 332,</v>
+      </c>
+      <c r="G353" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NATIVE = 332,</v>
-      </c>
-      <c r="G353" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NATIVE,</v>
+        <v xml:space="preserve">    NEW,</v>
       </c>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C354">
+        <f t="shared" si="16"/>
+        <v>333</v>
+      </c>
+      <c r="D354" t="str">
         <f t="shared" si="17"/>
-        <v>333</v>
-      </c>
-      <c r="D354" t="str">
+        <v xml:space="preserve">        NEXT = 333,</v>
+      </c>
+      <c r="G354" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NEGATIVE = 333,</v>
-      </c>
-      <c r="G354" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NEGATIVE,</v>
+        <v xml:space="preserve">    NEXT,</v>
       </c>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
-        <v>422</v>
+        <v>249</v>
       </c>
       <c r="C355">
+        <f t="shared" si="16"/>
+        <v>334</v>
+      </c>
+      <c r="D355" t="str">
         <f t="shared" si="17"/>
-        <v>334</v>
-      </c>
-      <c r="D355" t="str">
+        <v xml:space="preserve">        NO = 334,</v>
+      </c>
+      <c r="G355" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NEW = 334,</v>
-      </c>
-      <c r="G355" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NEW,</v>
+        <v xml:space="preserve">    NO,</v>
       </c>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>248</v>
+        <v>431</v>
       </c>
       <c r="C356">
+        <f t="shared" si="16"/>
+        <v>335</v>
+      </c>
+      <c r="D356" t="str">
         <f t="shared" si="17"/>
-        <v>335</v>
-      </c>
-      <c r="D356" t="str">
+        <v xml:space="preserve">        NONNUMERIC = 335,</v>
+      </c>
+      <c r="G356" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NEXT = 335,</v>
-      </c>
-      <c r="G356" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NEXT,</v>
+        <v xml:space="preserve">    NONNUMERIC,</v>
       </c>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C357">
+        <f t="shared" si="16"/>
+        <v>336</v>
+      </c>
+      <c r="D357" t="str">
         <f t="shared" si="17"/>
-        <v>336</v>
-      </c>
-      <c r="D357" t="str">
+        <v xml:space="preserve">        NOT = 336,</v>
+      </c>
+      <c r="G357" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NO = 336,</v>
-      </c>
-      <c r="G357" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NO,</v>
+        <v xml:space="preserve">    NOT,</v>
       </c>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>431</v>
+        <v>253</v>
       </c>
       <c r="C358">
+        <f t="shared" si="16"/>
+        <v>337</v>
+      </c>
+      <c r="D358" t="str">
         <f t="shared" si="17"/>
-        <v>337</v>
-      </c>
-      <c r="D358" t="str">
+        <v xml:space="preserve">        NUMERIC = 337,</v>
+      </c>
+      <c r="G358" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NONNUMERIC = 337,</v>
-      </c>
-      <c r="G358" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NONNUMERIC,</v>
+        <v xml:space="preserve">    NUMERIC,</v>
       </c>
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C359">
+        <f t="shared" si="16"/>
+        <v>338</v>
+      </c>
+      <c r="D359" t="str">
         <f t="shared" si="17"/>
-        <v>338</v>
-      </c>
-      <c r="D359" t="str">
+        <v xml:space="preserve">        NUMERIC_EDITED = 338,</v>
+      </c>
+      <c r="G359" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NOT = 338,</v>
-      </c>
-      <c r="G359" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NOT,</v>
+        <v xml:space="preserve">    NUMERIC_EDITED,</v>
       </c>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C360">
+        <f t="shared" si="16"/>
+        <v>339</v>
+      </c>
+      <c r="D360" t="str">
         <f t="shared" si="17"/>
-        <v>339</v>
-      </c>
-      <c r="D360" t="str">
+        <v xml:space="preserve">        OBJECT = 339,</v>
+      </c>
+      <c r="G360" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NUMERIC = 339,</v>
-      </c>
-      <c r="G360" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NUMERIC,</v>
+        <v xml:space="preserve">    OBJECT,</v>
       </c>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C361">
+        <f t="shared" si="16"/>
+        <v>340</v>
+      </c>
+      <c r="D361" t="str">
         <f t="shared" si="17"/>
-        <v>340</v>
-      </c>
-      <c r="D361" t="str">
+        <v xml:space="preserve">        OCCURS = 340,</v>
+      </c>
+      <c r="G361" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        NUMERIC_EDITED = 340,</v>
-      </c>
-      <c r="G361" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    NUMERIC_EDITED,</v>
+        <v xml:space="preserve">    OCCURS,</v>
       </c>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C362">
+        <f t="shared" si="16"/>
+        <v>341</v>
+      </c>
+      <c r="D362" t="str">
         <f t="shared" si="17"/>
-        <v>341</v>
-      </c>
-      <c r="D362" t="str">
+        <v xml:space="preserve">        OF = 341,</v>
+      </c>
+      <c r="G362" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        OBJECT = 341,</v>
-      </c>
-      <c r="G362" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OBJECT,</v>
+        <v xml:space="preserve">    OF,</v>
       </c>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B363" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C363">
+        <f t="shared" si="16"/>
+        <v>342</v>
+      </c>
+      <c r="D363" t="str">
         <f t="shared" si="17"/>
-        <v>342</v>
-      </c>
-      <c r="D363" t="str">
+        <v xml:space="preserve">        OFF = 342,</v>
+      </c>
+      <c r="G363" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        OCCURS = 342,</v>
-      </c>
-      <c r="G363" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OCCURS,</v>
+        <v xml:space="preserve">    OFF,</v>
       </c>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C364">
+        <f t="shared" si="16"/>
+        <v>343</v>
+      </c>
+      <c r="D364" t="str">
         <f t="shared" si="17"/>
-        <v>343</v>
-      </c>
-      <c r="D364" t="str">
+        <v xml:space="preserve">        OMITTED = 343,</v>
+      </c>
+      <c r="G364" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        OF = 343,</v>
-      </c>
-      <c r="G364" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OF,</v>
+        <v xml:space="preserve">    OMITTED,</v>
       </c>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B365" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C365">
+        <f t="shared" si="16"/>
+        <v>344</v>
+      </c>
+      <c r="D365" t="str">
         <f t="shared" si="17"/>
-        <v>344</v>
-      </c>
-      <c r="D365" t="str">
+        <v xml:space="preserve">        ON = 344,</v>
+      </c>
+      <c r="G365" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        OFF = 344,</v>
-      </c>
-      <c r="G365" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OFF,</v>
+        <v xml:space="preserve">    ON,</v>
       </c>
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C366">
+        <f t="shared" si="16"/>
+        <v>345</v>
+      </c>
+      <c r="D366" t="str">
         <f t="shared" si="17"/>
-        <v>345</v>
-      </c>
-      <c r="D366" t="str">
+        <v xml:space="preserve">        OPTIONAL = 345,</v>
+      </c>
+      <c r="G366" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        OMITTED = 345,</v>
-      </c>
-      <c r="G366" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OMITTED,</v>
+        <v xml:space="preserve">    OPTIONAL,</v>
       </c>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B367" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C367">
+        <f t="shared" si="16"/>
+        <v>346</v>
+      </c>
+      <c r="D367" t="str">
         <f t="shared" si="17"/>
-        <v>346</v>
-      </c>
-      <c r="D367" t="str">
+        <v xml:space="preserve">        OR = 346,</v>
+      </c>
+      <c r="G367" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        ON = 346,</v>
-      </c>
-      <c r="G367" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    ON,</v>
+        <v xml:space="preserve">    OR,</v>
       </c>
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B368" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C368">
+        <f t="shared" si="16"/>
+        <v>347</v>
+      </c>
+      <c r="D368" t="str">
         <f t="shared" si="17"/>
-        <v>347</v>
-      </c>
-      <c r="D368" t="str">
+        <v xml:space="preserve">        ORDER = 347,</v>
+      </c>
+      <c r="G368" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">        OPTIONAL = 347,</v>
-      </c>
-      <c r="G368" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OPTIONAL,</v>
+        <v xml:space="preserve">    ORDER,</v>
       </c>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B369" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C369">
+        <f t="shared" si="16"/>
+        <v>348</v>
+      </c>
+      <c r="D369" t="str">
         <f t="shared" si="17"/>
-        <v>348</v>
-      </c>
-      <c r="D369" t="str">
-        <f t="shared" ref="D369:D433" si="19">"        "&amp;B369&amp;" = "&amp;C369&amp;","</f>
-        <v xml:space="preserve">        OR = 348,</v>
+        <v xml:space="preserve">        ORGANIZATION = 348,</v>
       </c>
       <c r="G369" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OR,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    ORGANIZATION,</v>
       </c>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B370" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C370">
+        <f t="shared" si="16"/>
+        <v>349</v>
+      </c>
+      <c r="D370" t="str">
         <f t="shared" si="17"/>
-        <v>349</v>
-      </c>
-      <c r="D370" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        ORDER = 349,</v>
+        <v xml:space="preserve">        OTHER = 349,</v>
       </c>
       <c r="G370" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    ORDER,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    OTHER,</v>
       </c>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C371">
+        <f t="shared" si="16"/>
+        <v>350</v>
+      </c>
+      <c r="D371" t="str">
         <f t="shared" si="17"/>
-        <v>350</v>
-      </c>
-      <c r="D371" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        ORGANIZATION = 350,</v>
+        <v xml:space="preserve">        OUTPUT = 350,</v>
       </c>
       <c r="G371" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    ORGANIZATION,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    OUTPUT,</v>
       </c>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B372" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C372">
+        <f t="shared" si="16"/>
+        <v>351</v>
+      </c>
+      <c r="D372" t="str">
         <f t="shared" si="17"/>
-        <v>351</v>
-      </c>
-      <c r="D372" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        OTHER = 351,</v>
+        <v xml:space="preserve">        OVERFLOW = 351,</v>
       </c>
       <c r="G372" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OTHER,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    OVERFLOW,</v>
       </c>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C373">
+        <f t="shared" si="16"/>
+        <v>352</v>
+      </c>
+      <c r="D373" t="str">
         <f t="shared" si="17"/>
-        <v>352</v>
-      </c>
-      <c r="D373" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        OUTPUT = 352,</v>
+        <v xml:space="preserve">        OVERRIDE = 352,</v>
       </c>
       <c r="G373" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OUTPUT,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    OVERRIDE,</v>
       </c>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B374" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C374">
+        <f t="shared" si="16"/>
+        <v>353</v>
+      </c>
+      <c r="D374" t="str">
         <f t="shared" si="17"/>
-        <v>353</v>
-      </c>
-      <c r="D374" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        OVERFLOW = 353,</v>
+        <v xml:space="preserve">        PACKED_DECIMAL = 353,</v>
       </c>
       <c r="G374" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OVERFLOW,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PACKED_DECIMAL,</v>
       </c>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C375">
+        <f t="shared" si="16"/>
+        <v>354</v>
+      </c>
+      <c r="D375" t="str">
         <f t="shared" si="17"/>
-        <v>354</v>
-      </c>
-      <c r="D375" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        OVERRIDE = 354,</v>
+        <v xml:space="preserve">        PADDING = 354,</v>
       </c>
       <c r="G375" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    OVERRIDE,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PADDING,</v>
       </c>
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B376" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C376">
+        <f t="shared" si="16"/>
+        <v>355</v>
+      </c>
+      <c r="D376" t="str">
         <f t="shared" si="17"/>
-        <v>355</v>
-      </c>
-      <c r="D376" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PACKED_DECIMAL = 355,</v>
+        <v xml:space="preserve">        PAGE = 355,</v>
       </c>
       <c r="G376" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PACKED_DECIMAL,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PAGE,</v>
       </c>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B377" t="s">
-        <v>272</v>
+        <v>432</v>
       </c>
       <c r="C377">
+        <f t="shared" si="16"/>
+        <v>356</v>
+      </c>
+      <c r="D377" t="str">
         <f t="shared" si="17"/>
-        <v>356</v>
-      </c>
-      <c r="D377" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PADDING = 356,</v>
+        <v xml:space="preserve">        PARSE = 356,</v>
       </c>
       <c r="G377" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PADDING,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PARSE,</v>
       </c>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B378" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C378">
+        <f t="shared" si="16"/>
+        <v>357</v>
+      </c>
+      <c r="D378" t="str">
         <f t="shared" si="17"/>
-        <v>357</v>
-      </c>
-      <c r="D378" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PAGE = 357,</v>
+        <v xml:space="preserve">        PASSWORD = 357,</v>
       </c>
       <c r="G378" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PAGE,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PASSWORD,</v>
       </c>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B379" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="C379">
+        <f t="shared" si="16"/>
+        <v>358</v>
+      </c>
+      <c r="D379" t="str">
         <f t="shared" si="17"/>
-        <v>358</v>
-      </c>
-      <c r="D379" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PARSE = 358,</v>
+        <v xml:space="preserve">        PIC = 358,</v>
       </c>
       <c r="G379" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PARSE,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PIC,</v>
       </c>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B380" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C380">
+        <f t="shared" si="16"/>
+        <v>359</v>
+      </c>
+      <c r="D380" t="str">
         <f t="shared" si="17"/>
-        <v>359</v>
-      </c>
-      <c r="D380" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PASSWORD = 359,</v>
+        <v xml:space="preserve">        PICTURE = 359,</v>
       </c>
       <c r="G380" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PASSWORD,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PICTURE,</v>
       </c>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B381" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C381">
+        <f t="shared" si="16"/>
+        <v>360</v>
+      </c>
+      <c r="D381" t="str">
         <f t="shared" si="17"/>
-        <v>360</v>
-      </c>
-      <c r="D381" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PIC = 360,</v>
+        <v xml:space="preserve">        POINTER = 360,</v>
       </c>
       <c r="G381" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PIC,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    POINTER,</v>
       </c>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B382" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C382">
+        <f t="shared" si="16"/>
+        <v>361</v>
+      </c>
+      <c r="D382" t="str">
         <f t="shared" si="17"/>
-        <v>361</v>
-      </c>
-      <c r="D382" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PICTURE = 361,</v>
+        <v xml:space="preserve">        POSITION = 361,</v>
       </c>
       <c r="G382" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PICTURE,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    POSITION,</v>
       </c>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B383" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C383">
+        <f t="shared" si="16"/>
+        <v>362</v>
+      </c>
+      <c r="D383" t="str">
         <f t="shared" si="17"/>
-        <v>362</v>
-      </c>
-      <c r="D383" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        POINTER = 362,</v>
+        <v xml:space="preserve">        POSITIVE = 362,</v>
       </c>
       <c r="G383" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    POINTER,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    POSITIVE,</v>
       </c>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B384" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C384">
+        <f t="shared" si="16"/>
+        <v>363</v>
+      </c>
+      <c r="D384" t="str">
         <f t="shared" si="17"/>
-        <v>363</v>
-      </c>
-      <c r="D384" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        POSITION = 363,</v>
+        <v xml:space="preserve">        PROCEDURE = 363,</v>
       </c>
       <c r="G384" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    POSITION,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PROCEDURE,</v>
       </c>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C385">
+        <f t="shared" si="16"/>
+        <v>364</v>
+      </c>
+      <c r="D385" t="str">
         <f t="shared" si="17"/>
-        <v>364</v>
-      </c>
-      <c r="D385" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        POSITIVE = 364,</v>
+        <v xml:space="preserve">        PROCEDURE_POINTER = 364,</v>
       </c>
       <c r="G385" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    POSITIVE,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PROCEDURE_POINTER,</v>
       </c>
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C386">
+        <f t="shared" si="16"/>
+        <v>365</v>
+      </c>
+      <c r="D386" t="str">
         <f t="shared" si="17"/>
-        <v>365</v>
-      </c>
-      <c r="D386" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PROCEDURE = 365,</v>
+        <v xml:space="preserve">        PROCEDURES = 365,</v>
       </c>
       <c r="G386" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PROCEDURE,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PROCEDURES,</v>
       </c>
     </row>
     <row r="387" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B387" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C387">
+        <f t="shared" si="16"/>
+        <v>366</v>
+      </c>
+      <c r="D387" t="str">
         <f t="shared" si="17"/>
-        <v>366</v>
-      </c>
-      <c r="D387" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PROCEDURE_POINTER = 366,</v>
+        <v xml:space="preserve">        PROCEED = 366,</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PROCEDURE_POINTER,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PROCEED,</v>
       </c>
     </row>
     <row r="388" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B388" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C388">
+        <f t="shared" si="16"/>
+        <v>367</v>
+      </c>
+      <c r="D388" t="str">
         <f t="shared" si="17"/>
-        <v>367</v>
-      </c>
-      <c r="D388" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PROCEDURES = 367,</v>
+        <v xml:space="preserve">        PROCESSING = 367,</v>
       </c>
       <c r="G388" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PROCEDURES,</v>
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    PROCESSING,</v>
       </c>
     </row>
     <row r="389" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B389" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C389">
+        <f t="shared" si="16"/>
+        <v>368</v>
+      </c>
+      <c r="D389" t="str">
         <f t="shared" si="17"/>
-        <v>368</v>
-      </c>
-      <c r="D389" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PROCEED = 368,</v>
+        <v xml:space="preserve">        PROGRAM = 368,</v>
       </c>
       <c r="G389" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PROCEED,</v>
+        <f t="shared" ref="G389:G452" si="18">"    "&amp;B389&amp;","</f>
+        <v xml:space="preserve">    PROGRAM,</v>
       </c>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C390">
+        <f t="shared" si="16"/>
+        <v>369</v>
+      </c>
+      <c r="D390" t="str">
         <f t="shared" si="17"/>
-        <v>369</v>
-      </c>
-      <c r="D390" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PROCESSING = 369,</v>
+        <v xml:space="preserve">        PROGRAM_ID = 369,</v>
       </c>
       <c r="G390" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">    PROCESSING,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    PROGRAM_ID,</v>
       </c>
     </row>
     <row r="391" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B391" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C391">
+        <f t="shared" si="16"/>
+        <v>370</v>
+      </c>
+      <c r="D391" t="str">
         <f t="shared" si="17"/>
-        <v>370</v>
-      </c>
-      <c r="D391" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PROGRAM = 370,</v>
+        <v xml:space="preserve">        RANDOM = 370,</v>
       </c>
       <c r="G391" t="str">
-        <f t="shared" ref="G391:G455" si="20">"    "&amp;B391&amp;","</f>
-        <v xml:space="preserve">    PROGRAM,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RANDOM,</v>
       </c>
     </row>
     <row r="392" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B392" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C392">
+        <f t="shared" si="16"/>
+        <v>371</v>
+      </c>
+      <c r="D392" t="str">
         <f t="shared" si="17"/>
-        <v>371</v>
-      </c>
-      <c r="D392" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        PROGRAM_ID = 371,</v>
+        <v xml:space="preserve">        RECORD = 371,</v>
       </c>
       <c r="G392" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    PROGRAM_ID,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RECORD,</v>
       </c>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C393">
+        <f t="shared" si="16"/>
+        <v>372</v>
+      </c>
+      <c r="D393" t="str">
         <f t="shared" si="17"/>
-        <v>372</v>
-      </c>
-      <c r="D393" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RANDOM = 372,</v>
+        <v xml:space="preserve">        RECORDING = 372,</v>
       </c>
       <c r="G393" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RANDOM,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RECORDING,</v>
       </c>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C394">
+        <f t="shared" si="16"/>
+        <v>373</v>
+      </c>
+      <c r="D394" t="str">
         <f t="shared" si="17"/>
-        <v>373</v>
-      </c>
-      <c r="D394" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RECORD = 373,</v>
+        <v xml:space="preserve">        RECORDS = 373,</v>
       </c>
       <c r="G394" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RECORD,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RECORDS,</v>
       </c>
     </row>
     <row r="395" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B395" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C395">
+        <f t="shared" si="16"/>
+        <v>374</v>
+      </c>
+      <c r="D395" t="str">
         <f t="shared" si="17"/>
-        <v>374</v>
-      </c>
-      <c r="D395" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RECORDING = 374,</v>
+        <v xml:space="preserve">        RECURSIVE = 374,</v>
       </c>
       <c r="G395" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RECORDING,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RECURSIVE,</v>
       </c>
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C396">
+        <f t="shared" si="16"/>
+        <v>375</v>
+      </c>
+      <c r="D396" t="str">
         <f t="shared" si="17"/>
-        <v>375</v>
-      </c>
-      <c r="D396" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RECORDS = 375,</v>
+        <v xml:space="preserve">        REDEFINES = 375,</v>
       </c>
       <c r="G396" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RECORDS,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    REDEFINES,</v>
       </c>
     </row>
     <row r="397" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B397" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C397">
+        <f t="shared" si="16"/>
+        <v>376</v>
+      </c>
+      <c r="D397" t="str">
         <f t="shared" si="17"/>
-        <v>376</v>
-      </c>
-      <c r="D397" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RECURSIVE = 376,</v>
+        <v xml:space="preserve">        REEL = 376,</v>
       </c>
       <c r="G397" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RECURSIVE,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    REEL,</v>
       </c>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C398">
+        <f t="shared" si="16"/>
+        <v>377</v>
+      </c>
+      <c r="D398" t="str">
         <f t="shared" si="17"/>
-        <v>377</v>
-      </c>
-      <c r="D398" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        REDEFINES = 377,</v>
+        <v xml:space="preserve">        REFERENCE = 377,</v>
       </c>
       <c r="G398" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    REDEFINES,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    REFERENCE,</v>
       </c>
     </row>
     <row r="399" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B399" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C399">
+        <f t="shared" si="16"/>
+        <v>378</v>
+      </c>
+      <c r="D399" t="str">
         <f t="shared" si="17"/>
-        <v>378</v>
-      </c>
-      <c r="D399" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        REEL = 378,</v>
+        <v xml:space="preserve">        REFERENCES = 378,</v>
       </c>
       <c r="G399" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    REEL,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    REFERENCES,</v>
       </c>
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C400">
+        <f t="shared" si="16"/>
+        <v>379</v>
+      </c>
+      <c r="D400" t="str">
         <f t="shared" si="17"/>
-        <v>379</v>
-      </c>
-      <c r="D400" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        REFERENCE = 379,</v>
+        <v xml:space="preserve">        RELATIVE = 379,</v>
       </c>
       <c r="G400" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    REFERENCE,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RELATIVE,</v>
       </c>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B401" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C401">
-        <f t="shared" ref="C401:C465" si="21">C400+1</f>
+        <f t="shared" si="16"/>
         <v>380</v>
       </c>
       <c r="D401" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        REFERENCES = 380,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        RELOAD = 380,</v>
       </c>
       <c r="G401" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    REFERENCES,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RELOAD,</v>
       </c>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B402" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C402">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="C402:C465" si="19">C401+1</f>
         <v>381</v>
       </c>
       <c r="D402" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RELATIVE = 381,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        REMAINDER = 381,</v>
       </c>
       <c r="G402" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RELATIVE,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    REMAINDER,</v>
       </c>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B403" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C403">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>382</v>
       </c>
       <c r="D403" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RELOAD = 382,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        REMOVAL = 382,</v>
       </c>
       <c r="G403" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RELOAD,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    REMOVAL,</v>
       </c>
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B404" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C404">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>383</v>
       </c>
       <c r="D404" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        REMAINDER = 383,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        RENAMES = 383,</v>
       </c>
       <c r="G404" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    REMAINDER,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RENAMES,</v>
       </c>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B405" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C405">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>384</v>
       </c>
       <c r="D405" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        REMOVAL = 384,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        REPLACING = 384,</v>
       </c>
       <c r="G405" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    REMOVAL,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    REPLACING,</v>
       </c>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B406" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C406">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>385</v>
       </c>
       <c r="D406" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RENAMES = 385,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        RESERVE = 385,</v>
       </c>
       <c r="G406" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RENAMES,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RESERVE,</v>
       </c>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B407" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C407">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>386</v>
       </c>
       <c r="D407" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        REPLACING = 386,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        RETURNING = 386,</v>
       </c>
       <c r="G407" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    REPLACING,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RETURNING,</v>
       </c>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B408" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C408">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>387</v>
       </c>
       <c r="D408" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RESERVE = 387,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        REVERSED = 387,</v>
       </c>
       <c r="G408" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RESERVE,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    REVERSED,</v>
       </c>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B409" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C409">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>388</v>
       </c>
       <c r="D409" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RETURNING = 388,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        REWIND = 388,</v>
       </c>
       <c r="G409" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RETURNING,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    REWIND,</v>
       </c>
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B410" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C410">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>389</v>
       </c>
       <c r="D410" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        REVERSED = 389,</v>
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">        RIGHT = 389,</v>
       </c>
       <c r="G410" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    REVERSED,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RIGHT,</v>
       </c>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B411" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C411">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>390</v>
       </c>
       <c r="D411" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        REWIND = 390,</v>
+        <f t="shared" ref="D411:D468" si="20">"        "&amp;B411&amp;" = "&amp;C411&amp;","</f>
+        <v xml:space="preserve">        ROUNDED = 390,</v>
       </c>
       <c r="G411" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    REWIND,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    ROUNDED,</v>
       </c>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B412" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C412">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>391</v>
       </c>
       <c r="D412" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RIGHT = 391,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        RUN = 391,</v>
       </c>
       <c r="G412" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RIGHT,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    RUN,</v>
       </c>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B413" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C413">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>392</v>
       </c>
       <c r="D413" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        ROUNDED = 392,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        SECTION = 392,</v>
       </c>
       <c r="G413" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    ROUNDED,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SECTION,</v>
       </c>
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B414" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C414">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>393</v>
       </c>
       <c r="D414" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        RUN = 393,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        SECURITY = 393,</v>
       </c>
       <c r="G414" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    RUN,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SECURITY,</v>
       </c>
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B415" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C415">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>394</v>
       </c>
       <c r="D415" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        SECTION = 394,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        SEGMENT_LIMIT = 394,</v>
       </c>
       <c r="G415" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    SECTION,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SEGMENT_LIMIT,</v>
       </c>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B416" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C416">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>395</v>
       </c>
       <c r="D416" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        SENTENCE = 395,</v>
+      </c>
+      <c r="G416" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SENTENCE,</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
+        <v>331</v>
+      </c>
+      <c r="C417">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SECURITY = 395,</v>
-      </c>
-      <c r="G416" t="str">
+        <v>396</v>
+      </c>
+      <c r="D417" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SECURITY,</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B417" t="s">
-        <v>327</v>
-      </c>
-      <c r="C417">
-        <f t="shared" si="21"/>
-        <v>396</v>
-      </c>
-      <c r="D417" t="str">
+        <v xml:space="preserve">        SEPARATE = 396,</v>
+      </c>
+      <c r="G417" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SEPARATE,</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B418" t="s">
+        <v>332</v>
+      </c>
+      <c r="C418">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SEGMENT_LIMIT = 396,</v>
-      </c>
-      <c r="G417" t="str">
+        <v>397</v>
+      </c>
+      <c r="D418" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SEGMENT_LIMIT,</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B418" t="s">
-        <v>330</v>
-      </c>
-      <c r="C418">
-        <f t="shared" si="21"/>
-        <v>397</v>
-      </c>
-      <c r="D418" t="str">
+        <v xml:space="preserve">        SEQUENCE = 397,</v>
+      </c>
+      <c r="G418" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SEQUENCE,</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
+        <v>333</v>
+      </c>
+      <c r="C419">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SENTENCE = 397,</v>
-      </c>
-      <c r="G418" t="str">
+        <v>398</v>
+      </c>
+      <c r="D419" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SENTENCE,</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B419" t="s">
-        <v>331</v>
-      </c>
-      <c r="C419">
-        <f t="shared" si="21"/>
-        <v>398</v>
-      </c>
-      <c r="D419" t="str">
+        <v xml:space="preserve">        SEQUENTIAL = 398,</v>
+      </c>
+      <c r="G419" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SEQUENTIAL,</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
+        <v>334</v>
+      </c>
+      <c r="C420">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SEPARATE = 398,</v>
-      </c>
-      <c r="G419" t="str">
+        <v>399</v>
+      </c>
+      <c r="D420" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SEPARATE,</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B420" t="s">
-        <v>332</v>
-      </c>
-      <c r="C420">
-        <f t="shared" si="21"/>
-        <v>399</v>
-      </c>
-      <c r="D420" t="str">
+        <v xml:space="preserve">        SERVICE = 399,</v>
+      </c>
+      <c r="G420" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SERVICE,</v>
+      </c>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
+        <v>338</v>
+      </c>
+      <c r="C421">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SEQUENCE = 399,</v>
-      </c>
-      <c r="G420" t="str">
+        <v>400</v>
+      </c>
+      <c r="D421" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SEQUENCE,</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B421" t="s">
-        <v>333</v>
-      </c>
-      <c r="C421">
-        <f t="shared" si="21"/>
-        <v>400</v>
-      </c>
-      <c r="D421" t="str">
+        <v xml:space="preserve">        SIGN = 400,</v>
+      </c>
+      <c r="G421" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SIGN,</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
+        <v>339</v>
+      </c>
+      <c r="C422">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SEQUENTIAL = 400,</v>
-      </c>
-      <c r="G421" t="str">
+        <v>401</v>
+      </c>
+      <c r="D422" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SEQUENTIAL,</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B422" t="s">
-        <v>334</v>
-      </c>
-      <c r="C422">
-        <f t="shared" si="21"/>
-        <v>401</v>
-      </c>
-      <c r="D422" t="str">
+        <v xml:space="preserve">        SIZE = 401,</v>
+      </c>
+      <c r="G422" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SIZE,</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
+        <v>347</v>
+      </c>
+      <c r="C423">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SERVICE = 401,</v>
-      </c>
-      <c r="G422" t="str">
+        <v>402</v>
+      </c>
+      <c r="D423" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SERVICE,</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B423" t="s">
-        <v>338</v>
-      </c>
-      <c r="C423">
-        <f t="shared" si="21"/>
-        <v>402</v>
-      </c>
-      <c r="D423" t="str">
+        <v xml:space="preserve">        SORT_MERGE = 402,</v>
+      </c>
+      <c r="G423" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SORT_MERGE,</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
+        <v>355</v>
+      </c>
+      <c r="C424">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SIGN = 402,</v>
-      </c>
-      <c r="G423" t="str">
+        <v>403</v>
+      </c>
+      <c r="D424" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SIGN,</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B424" t="s">
-        <v>339</v>
-      </c>
-      <c r="C424">
-        <f t="shared" si="21"/>
-        <v>403</v>
-      </c>
-      <c r="D424" t="str">
+        <v xml:space="preserve">        SQL = 403,</v>
+      </c>
+      <c r="G424" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SQL,</v>
+      </c>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
+        <v>643</v>
+      </c>
+      <c r="C425">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SIZE = 403,</v>
-      </c>
-      <c r="G424" t="str">
+        <v>404</v>
+      </c>
+      <c r="D425" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SIZE,</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="B425" t="s">
-        <v>708</v>
-      </c>
-      <c r="C425">
-        <f t="shared" si="21"/>
-        <v>404</v>
-      </c>
-      <c r="D425" t="str">
+        <v xml:space="preserve">        SQLIMS = 404,</v>
+      </c>
+      <c r="G425" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SQLIMS,</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
+        <v>356</v>
+      </c>
+      <c r="C426">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SORT_ARG = 404,</v>
-      </c>
-      <c r="G425" t="str">
+        <v>405</v>
+      </c>
+      <c r="D426" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SORT_ARG,</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B426" t="s">
-        <v>347</v>
-      </c>
-      <c r="C426">
-        <f t="shared" si="21"/>
-        <v>405</v>
-      </c>
-      <c r="D426" t="str">
+        <v xml:space="preserve">        STANDARD = 405,</v>
+      </c>
+      <c r="G426" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    STANDARD,</v>
+      </c>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
+        <v>357</v>
+      </c>
+      <c r="C427">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SORT_MERGE = 405,</v>
-      </c>
-      <c r="G426" t="str">
+        <v>406</v>
+      </c>
+      <c r="D427" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SORT_MERGE,</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B427" t="s">
-        <v>355</v>
-      </c>
-      <c r="C427">
-        <f t="shared" si="21"/>
-        <v>406</v>
-      </c>
-      <c r="D427" t="str">
+        <v xml:space="preserve">        STANDARD_1 = 406,</v>
+      </c>
+      <c r="G427" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    STANDARD_1,</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
+        <v>358</v>
+      </c>
+      <c r="C428">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SQL = 406,</v>
-      </c>
-      <c r="G427" t="str">
+        <v>407</v>
+      </c>
+      <c r="D428" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SQL,</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B428" t="s">
-        <v>643</v>
-      </c>
-      <c r="C428">
-        <f t="shared" si="21"/>
-        <v>407</v>
-      </c>
-      <c r="D428" t="str">
+        <v xml:space="preserve">        STANDARD_2 = 407,</v>
+      </c>
+      <c r="G428" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    STANDARD_2,</v>
+      </c>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
+        <v>360</v>
+      </c>
+      <c r="C429">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        SQLIMS = 407,</v>
-      </c>
-      <c r="G428" t="str">
+        <v>408</v>
+      </c>
+      <c r="D429" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    SQLIMS,</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B429" t="s">
-        <v>356</v>
-      </c>
-      <c r="C429">
-        <f t="shared" si="21"/>
-        <v>408</v>
-      </c>
-      <c r="D429" t="str">
+        <v xml:space="preserve">        STATUS = 408,</v>
+      </c>
+      <c r="G429" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    STATUS,</v>
+      </c>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
+        <v>365</v>
+      </c>
+      <c r="C430">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        STANDARD = 408,</v>
-      </c>
-      <c r="G429" t="str">
+        <v>409</v>
+      </c>
+      <c r="D430" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    STANDARD,</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B430" t="s">
-        <v>357</v>
-      </c>
-      <c r="C430">
-        <f t="shared" si="21"/>
-        <v>409</v>
-      </c>
-      <c r="D430" t="str">
+        <v xml:space="preserve">        SUPPRESS = 409,</v>
+      </c>
+      <c r="G430" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SUPPRESS,</v>
+      </c>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
+        <v>420</v>
+      </c>
+      <c r="C431">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        STANDARD_1 = 409,</v>
-      </c>
-      <c r="G430" t="str">
+        <v>410</v>
+      </c>
+      <c r="D431" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    STANDARD_1,</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B431" t="s">
-        <v>358</v>
-      </c>
-      <c r="C431">
-        <f t="shared" si="21"/>
-        <v>410</v>
-      </c>
-      <c r="D431" t="str">
+        <v xml:space="preserve">        SYMBOL = 410,</v>
+      </c>
+      <c r="G431" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SYMBOL,</v>
+      </c>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
+        <v>366</v>
+      </c>
+      <c r="C432">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">        STANDARD_2 = 410,</v>
-      </c>
-      <c r="G431" t="str">
+        <v>411</v>
+      </c>
+      <c r="D432" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    STANDARD_2,</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B432" t="s">
-        <v>360</v>
-      </c>
-      <c r="C432">
-        <f t="shared" si="21"/>
-        <v>411</v>
-      </c>
-      <c r="D432" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        STATUS = 411,</v>
+        <v xml:space="preserve">        SYMBOLIC = 411,</v>
       </c>
       <c r="G432" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    STATUS,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SYMBOLIC,</v>
       </c>
     </row>
     <row r="433" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B433" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C433">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>412</v>
       </c>
       <c r="D433" t="str">
-        <f t="shared" si="19"/>
-        <v xml:space="preserve">        SUPPRESS = 412,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        SYNC = 412,</v>
       </c>
       <c r="G433" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    SUPPRESS,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SYNC,</v>
       </c>
     </row>
     <row r="434" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B434" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="C434">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>413</v>
       </c>
       <c r="D434" t="str">
-        <f t="shared" ref="D434:D488" si="22">"        "&amp;B434&amp;" = "&amp;C434&amp;","</f>
-        <v xml:space="preserve">        SYMBOL = 413,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        SYNCHRONIZED = 413,</v>
       </c>
       <c r="G434" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    SYMBOL,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    SYNCHRONIZED,</v>
       </c>
     </row>
     <row r="435" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B435" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C435">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>414</v>
       </c>
       <c r="D435" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        SYMBOLIC = 414,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TALLYING = 414,</v>
       </c>
       <c r="G435" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    SYMBOLIC,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TALLYING,</v>
       </c>
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C436">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>415</v>
       </c>
       <c r="D436" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        SYNC = 415,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TAPE = 415,</v>
       </c>
       <c r="G436" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    SYNC,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TAPE,</v>
       </c>
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B437" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C437">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>416</v>
       </c>
       <c r="D437" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        SYNCHRONIZED = 416,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TEST = 416,</v>
       </c>
       <c r="G437" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    SYNCHRONIZED,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TEST,</v>
       </c>
     </row>
     <row r="438" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B438" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C438">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>417</v>
       </c>
       <c r="D438" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TALLYING = 417,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        THAN = 417,</v>
       </c>
       <c r="G438" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TALLYING,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    THAN,</v>
       </c>
     </row>
     <row r="439" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B439" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C439">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>418</v>
       </c>
       <c r="D439" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TAPE = 418,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        THEN = 418,</v>
       </c>
       <c r="G439" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TAPE,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    THEN,</v>
       </c>
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B440" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C440">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>419</v>
       </c>
       <c r="D440" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TEST = 419,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        THROUGH = 419,</v>
       </c>
       <c r="G440" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TEST,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    THROUGH,</v>
       </c>
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B441" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C441">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>420</v>
       </c>
       <c r="D441" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        THAN = 420,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        THRU = 420,</v>
       </c>
       <c r="G441" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    THAN,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    THRU,</v>
       </c>
     </row>
     <row r="442" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B442" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C442">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>421</v>
       </c>
       <c r="D442" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        THEN = 421,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TIME = 421,</v>
       </c>
       <c r="G442" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    THEN,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TIME,</v>
       </c>
     </row>
     <row r="443" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B443" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>422</v>
       </c>
       <c r="D443" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        THROUGH = 422,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TIMES = 422,</v>
       </c>
       <c r="G443" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    THROUGH,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TIMES,</v>
       </c>
     </row>
     <row r="444" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B444" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C444">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>423</v>
       </c>
       <c r="D444" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        THRU = 423,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TO = 423,</v>
       </c>
       <c r="G444" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    THRU,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TO,</v>
       </c>
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B445" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C445">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>424</v>
       </c>
       <c r="D445" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TIME = 424,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TOP = 424,</v>
       </c>
       <c r="G445" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TIME,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TOP,</v>
       </c>
     </row>
     <row r="446" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B446" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C446">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>425</v>
       </c>
       <c r="D446" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TIMES = 425,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TRACE = 425,</v>
       </c>
       <c r="G446" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TIMES,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TRACE,</v>
       </c>
     </row>
     <row r="447" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B447" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C447">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>426</v>
       </c>
       <c r="D447" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TO = 426,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TRAILING = 426,</v>
       </c>
       <c r="G447" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TO,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TRAILING,</v>
       </c>
     </row>
     <row r="448" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B448" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C448">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>427</v>
       </c>
       <c r="D448" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TOP = 427,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TRUE = 427,</v>
       </c>
       <c r="G448" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TOP,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TRUE,</v>
       </c>
     </row>
     <row r="449" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B449" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C449">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>428</v>
       </c>
       <c r="D449" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TRACE = 428,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        TYPE = 428,</v>
       </c>
       <c r="G449" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TRACE,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    TYPE,</v>
       </c>
     </row>
     <row r="450" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B450" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="C450">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>429</v>
       </c>
       <c r="D450" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TRAILING = 429,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        UNBOUNDED = 429,</v>
       </c>
       <c r="G450" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TRAILING,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    UNBOUNDED,</v>
       </c>
     </row>
     <row r="451" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B451" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C451">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>430</v>
       </c>
       <c r="D451" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TRUE = 430,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        UNIT = 430,</v>
       </c>
       <c r="G451" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TRUE,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    UNIT,</v>
       </c>
     </row>
     <row r="452" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B452" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C452">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>431</v>
       </c>
       <c r="D452" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TYPE = 431,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        UNTIL = 431,</v>
       </c>
       <c r="G452" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    TYPE,</v>
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    UNTIL,</v>
       </c>
     </row>
     <row r="453" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B453" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="C453">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>432</v>
       </c>
       <c r="D453" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        UNBOUNDED = 432,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        UP = 432,</v>
       </c>
       <c r="G453" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    UNBOUNDED,</v>
+        <f t="shared" ref="G453:G478" si="21">"    "&amp;B453&amp;","</f>
+        <v xml:space="preserve">    UP,</v>
       </c>
     </row>
     <row r="454" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B454" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C454">
+        <f t="shared" si="19"/>
+        <v>433</v>
+      </c>
+      <c r="D454" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        UPON = 433,</v>
+      </c>
+      <c r="G454" t="str">
         <f t="shared" si="21"/>
-        <v>433</v>
-      </c>
-      <c r="D454" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        UNIT = 433,</v>
-      </c>
-      <c r="G454" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    UNIT,</v>
+        <v xml:space="preserve">    UPON,</v>
       </c>
     </row>
     <row r="455" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B455" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C455">
+        <f t="shared" si="19"/>
+        <v>434</v>
+      </c>
+      <c r="D455" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        USAGE = 434,</v>
+      </c>
+      <c r="G455" t="str">
         <f t="shared" si="21"/>
-        <v>434</v>
-      </c>
-      <c r="D455" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        UNTIL = 434,</v>
-      </c>
-      <c r="G455" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    UNTIL,</v>
+        <v xml:space="preserve">    USAGE,</v>
       </c>
     </row>
     <row r="456" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B456" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C456">
+        <f t="shared" si="19"/>
+        <v>435</v>
+      </c>
+      <c r="D456" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        USING = 435,</v>
+      </c>
+      <c r="G456" t="str">
         <f t="shared" si="21"/>
-        <v>435</v>
-      </c>
-      <c r="D456" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        UP = 435,</v>
-      </c>
-      <c r="G456" t="str">
-        <f t="shared" ref="G456:G481" si="23">"    "&amp;B456&amp;","</f>
-        <v xml:space="preserve">    UP,</v>
+        <v xml:space="preserve">    USING,</v>
       </c>
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B457" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="C457">
+        <f t="shared" si="19"/>
+        <v>436</v>
+      </c>
+      <c r="D457" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        VALIDATING = 436,</v>
+      </c>
+      <c r="G457" t="str">
         <f t="shared" si="21"/>
-        <v>436</v>
-      </c>
-      <c r="D457" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        UPON = 436,</v>
-      </c>
-      <c r="G457" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    UPON,</v>
+        <v xml:space="preserve">    VALIDATING,</v>
       </c>
     </row>
     <row r="458" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B458" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C458">
+        <f t="shared" si="19"/>
+        <v>437</v>
+      </c>
+      <c r="D458" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        VALUE = 437,</v>
+      </c>
+      <c r="G458" t="str">
         <f t="shared" si="21"/>
-        <v>437</v>
-      </c>
-      <c r="D458" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        USAGE = 437,</v>
-      </c>
-      <c r="G458" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    USAGE,</v>
+        <v xml:space="preserve">    VALUE,</v>
       </c>
     </row>
     <row r="459" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B459" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C459">
+        <f t="shared" si="19"/>
+        <v>438</v>
+      </c>
+      <c r="D459" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        VALUES = 438,</v>
+      </c>
+      <c r="G459" t="str">
         <f t="shared" si="21"/>
-        <v>438</v>
-      </c>
-      <c r="D459" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        USING = 438,</v>
-      </c>
-      <c r="G459" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    USING,</v>
+        <v xml:space="preserve">    VALUES,</v>
       </c>
     </row>
     <row r="460" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B460" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="C460">
+        <f t="shared" si="19"/>
+        <v>439</v>
+      </c>
+      <c r="D460" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        VARYING = 439,</v>
+      </c>
+      <c r="G460" t="str">
         <f t="shared" si="21"/>
-        <v>439</v>
-      </c>
-      <c r="D460" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        VALIDATING = 439,</v>
-      </c>
-      <c r="G460" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    VALIDATING,</v>
+        <v xml:space="preserve">    VARYING,</v>
       </c>
     </row>
     <row r="461" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B461" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C461">
+        <f t="shared" si="19"/>
+        <v>440</v>
+      </c>
+      <c r="D461" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        WHEN = 440,</v>
+      </c>
+      <c r="G461" t="str">
         <f t="shared" si="21"/>
-        <v>440</v>
-      </c>
-      <c r="D461" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        VALUE = 440,</v>
-      </c>
-      <c r="G461" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    VALUE,</v>
+        <v xml:space="preserve">    WHEN,</v>
       </c>
     </row>
     <row r="462" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B462" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C462">
+        <f t="shared" si="19"/>
+        <v>441</v>
+      </c>
+      <c r="D462" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        WITH = 441,</v>
+      </c>
+      <c r="G462" t="str">
         <f t="shared" si="21"/>
-        <v>441</v>
-      </c>
-      <c r="D462" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        VALUES = 441,</v>
-      </c>
-      <c r="G462" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    VALUES,</v>
+        <v xml:space="preserve">    WITH,</v>
       </c>
     </row>
     <row r="463" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B463" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C463">
+        <f t="shared" si="19"/>
+        <v>442</v>
+      </c>
+      <c r="D463" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        WORDS = 442,</v>
+      </c>
+      <c r="G463" t="str">
         <f t="shared" si="21"/>
-        <v>442</v>
-      </c>
-      <c r="D463" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        VARYING = 442,</v>
-      </c>
-      <c r="G463" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    VARYING,</v>
+        <v xml:space="preserve">    WORDS,</v>
       </c>
     </row>
     <row r="464" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B464" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C464">
+        <f t="shared" si="19"/>
+        <v>443</v>
+      </c>
+      <c r="D464" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        WRITE_ONLY = 443,</v>
+      </c>
+      <c r="G464" t="str">
         <f t="shared" si="21"/>
-        <v>443</v>
-      </c>
-      <c r="D464" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        WHEN = 443,</v>
-      </c>
-      <c r="G464" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    WHEN,</v>
+        <v xml:space="preserve">    WRITE_ONLY,</v>
       </c>
     </row>
     <row r="465" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B465" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="C465">
+        <f t="shared" si="19"/>
+        <v>444</v>
+      </c>
+      <c r="D465" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        XML_DECLARATION = 444,</v>
+      </c>
+      <c r="G465" t="str">
         <f t="shared" si="21"/>
-        <v>444</v>
-      </c>
-      <c r="D465" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        WITH = 444,</v>
-      </c>
-      <c r="G465" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    WITH,</v>
+        <v xml:space="preserve">    XML_DECLARATION,</v>
       </c>
     </row>
     <row r="466" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B466" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C466">
-        <f t="shared" ref="C466:C471" si="24">C465+1</f>
+        <f t="shared" ref="C466:C468" si="22">C465+1</f>
         <v>445</v>
       </c>
       <c r="D466" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        WORDS = 445,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        XML_SCHEMA = 445,</v>
       </c>
       <c r="G466" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    WORDS,</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    XML_SCHEMA,</v>
       </c>
     </row>
     <row r="467" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B467" t="s">
-        <v>403</v>
+        <v>684</v>
       </c>
       <c r="C467">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>446</v>
       </c>
       <c r="D467" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        WRITE_ONLY = 446,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        YYYYDDD = 446,</v>
       </c>
       <c r="G467" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    WRITE_ONLY,</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    YYYYDDD,</v>
       </c>
     </row>
     <row r="468" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B468" t="s">
-        <v>424</v>
+        <v>683</v>
       </c>
       <c r="C468">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>447</v>
       </c>
       <c r="D468" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        XML_DECLARATION = 447,</v>
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">        YYYYMMDD = 447,</v>
       </c>
       <c r="G468" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    XML_DECLARATION,</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    YYYYMMDD,</v>
+      </c>
+      <c r="J468" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="469" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B469" t="s">
-        <v>413</v>
-      </c>
-      <c r="C469">
-        <f t="shared" si="24"/>
-        <v>448</v>
-      </c>
-      <c r="D469" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        XML_SCHEMA = 448,</v>
+      <c r="D469" t="s">
+        <v>840</v>
       </c>
       <c r="G469" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    XML_SCHEMA,</v>
+        <f>RIGHT(D469,LEN(D469)-4)</f>
+        <v xml:space="preserve">    // Keywords - Cobol 2002</v>
       </c>
     </row>
     <row r="470" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B470" t="s">
-        <v>684</v>
+        <v>655</v>
       </c>
       <c r="C470">
-        <f t="shared" si="24"/>
-        <v>449</v>
+        <f>C468+1</f>
+        <v>448</v>
       </c>
       <c r="D470" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        YYYYDDD = 449,</v>
+        <f t="shared" ref="D431:D485" si="23">"        "&amp;B470&amp;" = "&amp;C470&amp;","</f>
+        <v xml:space="preserve">        TYPEDEF = 448,</v>
       </c>
       <c r="G470" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    YYYYDDD,</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    TYPEDEF,</v>
       </c>
     </row>
     <row r="471" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B471" t="s">
-        <v>683</v>
+        <v>827</v>
       </c>
       <c r="C471">
-        <f t="shared" si="24"/>
-        <v>450</v>
+        <f t="shared" ref="C471:C483" si="24">C470+1</f>
+        <v>449</v>
       </c>
       <c r="D471" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        YYYYMMDD = 450,</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">        STRONG = 449,</v>
       </c>
       <c r="G471" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    YYYYMMDD,</v>
-      </c>
-      <c r="J471" t="s">
-        <v>837</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    STRONG,</v>
       </c>
     </row>
     <row r="472" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D472" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G472" t="str">
         <f>RIGHT(D472,LEN(D472)-4)</f>
-        <v xml:space="preserve">    // Keywords - Cobol 2002</v>
+        <v xml:space="preserve">    // Keywords - TypeCobol</v>
       </c>
     </row>
     <row r="473" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B473" t="s">
-        <v>655</v>
+        <v>443</v>
       </c>
       <c r="C473">
         <f>C471+1</f>
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D473" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        TYPEDEF = 451,</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">        DECLARE = 450,</v>
       </c>
       <c r="G473" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    TYPEDEF,</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    DECLARE,</v>
       </c>
     </row>
     <row r="474" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B474" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C474">
-        <f t="shared" ref="C466:C486" si="25">C473+1</f>
+        <f t="shared" si="24"/>
+        <v>451</v>
+      </c>
+      <c r="D474" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">        END_DECLARE = 451,</v>
+      </c>
+      <c r="G474" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    END_DECLARE,</v>
+      </c>
+    </row>
+    <row r="475" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B475" t="s">
+        <v>829</v>
+      </c>
+      <c r="C475">
+        <f t="shared" si="24"/>
         <v>452</v>
       </c>
-      <c r="D474" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        STRONG = 452,</v>
-      </c>
-      <c r="G474" t="str">
+      <c r="D475" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">    STRONG,</v>
-      </c>
-    </row>
-    <row r="475" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D475" t="s">
-        <v>841</v>
+        <v xml:space="preserve">        UNSAFE = 452,</v>
       </c>
       <c r="G475" t="str">
-        <f>RIGHT(D475,LEN(D475)-4)</f>
-        <v xml:space="preserve">    // Keywords - TypeCobol</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    UNSAFE,</v>
       </c>
     </row>
     <row r="476" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B476" t="s">
-        <v>443</v>
+        <v>830</v>
       </c>
       <c r="C476">
-        <f>C474+1</f>
+        <f t="shared" si="24"/>
         <v>453</v>
       </c>
       <c r="D476" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        DECLARE = 453,</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">        PUBLIC = 453,</v>
       </c>
       <c r="G476" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    DECLARE,</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    PUBLIC,</v>
       </c>
     </row>
     <row r="477" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B477" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C477">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>454</v>
       </c>
       <c r="D477" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        END_DECLARE = 454,</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">        PRIVATE = 454,</v>
       </c>
       <c r="G477" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    END_DECLARE,</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    PRIVATE,</v>
       </c>
     </row>
     <row r="478" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B478" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C478">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>455</v>
       </c>
       <c r="D478" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        UNSAFE = 455,</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">        INOUT = 455,</v>
       </c>
       <c r="G478" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    UNSAFE,</v>
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    INOUT,</v>
       </c>
     </row>
     <row r="479" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B479" t="s">
-        <v>830</v>
-      </c>
-      <c r="C479">
-        <f t="shared" si="25"/>
-        <v>456</v>
-      </c>
-      <c r="D479" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        PUBLIC = 456,</v>
-      </c>
-      <c r="G479" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    PUBLIC,</v>
-      </c>
+      <c r="D479" t="s">
+        <v>820</v>
+      </c>
+      <c r="G479" s="41"/>
     </row>
     <row r="480" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B480" t="s">
-        <v>831</v>
-      </c>
-      <c r="C480">
-        <f t="shared" si="25"/>
-        <v>457</v>
-      </c>
-      <c r="D480" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        PRIVATE = 457,</v>
-      </c>
-      <c r="G480" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    PRIVATE,</v>
-      </c>
+      <c r="D480" t="s">
+        <v>821</v>
+      </c>
+      <c r="G480" s="41"/>
     </row>
     <row r="481" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C481">
-        <f t="shared" si="25"/>
+        <f>C478+1</f>
+        <v>456</v>
+      </c>
+      <c r="D481" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">        CompilerDirective = 456,</v>
+      </c>
+      <c r="G481" s="41"/>
+    </row>
+    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B482" t="s">
+        <v>834</v>
+      </c>
+      <c r="C482">
+        <f t="shared" si="24"/>
+        <v>457</v>
+      </c>
+      <c r="D482" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">        CopyImportDirective = 457,</v>
+      </c>
+      <c r="G482" s="41"/>
+    </row>
+    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B483" t="s">
+        <v>835</v>
+      </c>
+      <c r="C483">
+        <f t="shared" si="24"/>
         <v>458</v>
       </c>
-      <c r="D481" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        INOUT = 458,</v>
-      </c>
-      <c r="G481" t="str">
+      <c r="D483" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">    INOUT,</v>
-      </c>
-    </row>
-    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D482" t="s">
-        <v>820</v>
-      </c>
-      <c r="G482" s="41"/>
-    </row>
-    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D483" t="s">
-        <v>821</v>
+        <v xml:space="preserve">        ReplaceDirective = 458,</v>
       </c>
       <c r="G483" s="41"/>
     </row>
     <row r="484" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B484" t="s">
-        <v>833</v>
-      </c>
-      <c r="C484">
-        <f>C481+1</f>
-        <v>459</v>
-      </c>
-      <c r="D484" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        CompilerDirective = 459,</v>
+      <c r="D484" t="s">
+        <v>822</v>
       </c>
       <c r="G484" s="41"/>
     </row>
     <row r="485" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B485" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C485">
-        <f t="shared" si="25"/>
-        <v>460</v>
+        <f>C483+1</f>
+        <v>459</v>
       </c>
       <c r="D485" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        CopyImportDirective = 460,</v>
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">        ContinuationTokenGroup = 459,</v>
       </c>
       <c r="G485" s="41"/>
     </row>
-    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B486" t="s">
-        <v>835</v>
-      </c>
-      <c r="C486">
-        <f t="shared" si="25"/>
-        <v>461</v>
-      </c>
-      <c r="D486" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        ReplaceDirective = 461,</v>
-      </c>
-      <c r="G486" s="41"/>
-    </row>
-    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D487" t="s">
-        <v>822</v>
-      </c>
-      <c r="G487" s="41"/>
-    </row>
-    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B488" t="s">
-        <v>836</v>
-      </c>
-      <c r="C488">
-        <f>C486+1</f>
-        <v>462</v>
-      </c>
-      <c r="D488" t="str">
-        <f t="shared" si="22"/>
-        <v xml:space="preserve">        ContinuationTokenGroup = 462,</v>
-      </c>
-      <c r="G488" s="41"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:A485"/>
   <sortState ref="B32:B449">
     <sortCondition ref="B32"/>
   </sortState>
